--- a/dist/listOfPartners.xlsx
+++ b/dist/listOfPartners.xlsx
@@ -1587,14 +1587,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FIRIC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이즈나인</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>㈜이오엠컴퍼니</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1604,10 +1596,6 @@
   </si>
   <si>
     <t>MARSE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드리빙,코드26</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2064,10 +2052,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>NEMAME</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>제이와이글로벌</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2097,41 +2081,6 @@
   </si>
   <si>
     <t>아이디빅토리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미르</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펠로우</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2249,6 +2198,365 @@
   </si>
   <si>
     <t>보니렌/쉐프본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>어반사이드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불스원</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이티에스글로벌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>필모아/바툼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이켈/롤렝</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오아</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주식회사</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이마</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피에치하비</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Ph.Hubby)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프랭클리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬리핑</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터내셔널</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 101</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼센트주식회사</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>씨엠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬멧</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티엘씨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퍼니</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교유코리아</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BNT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터내셔널</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(DOXX)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조이메일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>official.gyeonkorea@gmail.com/
+sales.gyeonkorea@gmail.com</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2311,362 +2619,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>어반사이드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불스원</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이티에스글로벌</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>필모아/바툼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>라이켈/롤렝</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오아</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주식회사</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>라이마</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피에치하비</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Ph.Hubby)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프랭클리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>슬리핑</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인터내셔널</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 101</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼센트주식회사</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>씨엠</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헬멧</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>티엘씨</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컴퍼니</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교유코리아</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BNT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인터내셔널</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>독스</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(DOXX)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>참조이메일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>official.gyeonkorea@gmail.com/
-sales.gyeonkorea@gmail.com</t>
+    <t>NEMAME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드리빙/코드26</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미르/펠로우</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이즈나인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘릭</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3248,10 +3217,10 @@
   <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3269,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -3281,7 +3250,7 @@
         <v>257</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3344,13 +3313,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>262</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>8</v>
@@ -3472,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="1"/>
@@ -3540,13 +3509,13 @@
         <v>274</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3640,10 +3609,10 @@
         <v>326</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="1"/>
@@ -3712,7 +3681,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>43</v>
@@ -3848,7 +3817,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>58</v>
@@ -3891,7 +3860,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>296</v>
@@ -3900,7 +3869,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="1"/>
@@ -3923,7 +3892,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="1"/>
@@ -4128,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>88</v>
@@ -4171,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>311</v>
@@ -4180,7 +4149,7 @@
         <v>93</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>94</v>
@@ -4224,7 +4193,7 @@
         <v>314</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>98</v>
@@ -4410,7 +4379,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>116</v>
@@ -4502,7 +4471,7 @@
         <v>337</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>124</v>
@@ -4551,7 +4520,7 @@
         <v>340</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>128</v>
@@ -4570,7 +4539,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>341</v>
@@ -4708,10 +4677,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>347</v>
+        <v>480</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>479</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>146</v>
@@ -4731,10 +4700,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>148</v>
@@ -4756,10 +4725,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>151</v>
@@ -4781,10 +4750,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>352</v>
+        <v>477</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>154</v>
@@ -4804,10 +4773,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>156</v>
@@ -4827,10 +4796,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>158</v>
@@ -4850,10 +4819,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>160</v>
@@ -4873,10 +4842,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>162</v>
@@ -4896,10 +4865,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>164</v>
@@ -4919,10 +4888,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>166</v>
@@ -4942,10 +4911,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>168</v>
@@ -4965,10 +4934,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>170</v>
@@ -4988,10 +4957,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>172</v>
@@ -5011,10 +4980,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>174</v>
@@ -5034,10 +5003,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>176</v>
@@ -5057,10 +5026,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>178</v>
@@ -5080,10 +5049,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>180</v>
@@ -5103,10 +5072,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>182</v>
@@ -5126,10 +5095,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>184</v>
@@ -5149,10 +5118,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>186</v>
@@ -5172,10 +5141,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>188</v>
@@ -5195,10 +5164,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>190</v>
@@ -5221,7 +5190,7 @@
         <v>192</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>193</v>
@@ -5243,10 +5212,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>196</v>
@@ -5266,10 +5235,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>198</v>
@@ -5289,10 +5258,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>200</v>
@@ -5317,7 +5286,7 @@
         <v>256</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>203</v>
@@ -5337,10 +5306,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>205</v>
@@ -5360,10 +5329,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>207</v>
@@ -5383,10 +5352,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>209</v>
@@ -5406,10 +5375,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>211</v>
@@ -5429,10 +5398,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>213</v>
@@ -5452,10 +5421,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>215</v>
@@ -5498,10 +5467,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>220</v>
@@ -5521,10 +5490,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>222</v>
@@ -5544,10 +5513,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>224</v>
@@ -5567,10 +5536,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>226</v>
@@ -5590,10 +5559,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>228</v>
@@ -5613,10 +5582,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>230</v>
@@ -5636,10 +5605,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>232</v>
@@ -5662,7 +5631,7 @@
         <v>234</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>235</v>
@@ -5682,10 +5651,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>237</v>
@@ -5694,7 +5663,7 @@
         <v>238</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -5707,10 +5676,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>239</v>
@@ -5730,10 +5699,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>241</v>
@@ -5753,10 +5722,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>243</v>
@@ -5776,10 +5745,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>245</v>
@@ -5801,10 +5770,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>248</v>
@@ -5824,10 +5793,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>250</v>
@@ -5853,10 +5822,10 @@
         <v>217</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="1"/>
@@ -5870,16 +5839,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="1"/>
@@ -5892,17 +5861,17 @@
       <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>429</v>
+      <c r="B113" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="1"/>
@@ -5919,13 +5888,13 @@
         <v>254</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="1"/>
@@ -5939,19 +5908,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -5964,16 +5933,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="1"/>
@@ -5993,10 +5962,10 @@
         <v>255</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="1"/>
